--- a/data/trans_dic/P1805-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1805-Edad-trans_dic.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">

--- a/data/trans_dic/P1805-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1805-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,48 +544,84 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -611,12 +666,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -627,6 +682,36 @@
       <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2,07%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5,75%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2,02%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>5,11%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>0; 0,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>0; 0,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>0,95; 4,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>1,63; 9,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0; 0,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0; 0,45</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0,91; 4,47</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2,75; 10,31</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,19</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,22</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1,14; 3,25</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2,97; 7,99</t>
         </is>
       </c>
     </row>
@@ -691,12 +806,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -707,6 +822,36 @@
       <c r="H6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2,11%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4,01%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1,68%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>3,34%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0; 0,27</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,29</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0,53; 2,54</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1,15; 5,06</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,32</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0; 0,34</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,63</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,33</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,42</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,17</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,25</t>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1,15; 3,64</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2,33; 6,65</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,15</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,15</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1,09; 2,65</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2,16; 5,24</t>
         </is>
       </c>
     </row>
@@ -771,12 +946,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -787,6 +962,36 @@
       <c r="H8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3,22%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>4,52%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2,91%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>4,45%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0; 0,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>1,63; 4,09</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2,7; 7,07</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>0; 0,29</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,23</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,29</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2,01; 4,82</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3,14; 6,13</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
         <is>
           <t>0; 0,15</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,14</t>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,15</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2,07; 3,87</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3,36; 5,74</t>
         </is>
       </c>
     </row>
@@ -851,12 +1086,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -867,6 +1102,36 @@
       <c r="H10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4,2%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4,45%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>3,05%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>4,73%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0; 0,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0; 0,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,98; 3,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>3,19; 7,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0; 0,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>0; 0,36</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2,84; 6,29</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3,23; 5,75</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,19</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,18</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2,12; 4,1</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>3,81; 6,14</t>
         </is>
       </c>
     </row>
@@ -931,12 +1226,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -947,6 +1242,36 @@
       <c r="H12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,48%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5,24%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3,64%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4,19%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>0; 0,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0; 0,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>0,66; 3,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>1,98; 4,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0; 0,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0; 0,47</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3,55; 7,82</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4,1; 6,89</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,24</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,24</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2,5; 5,08</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>3,28; 5,27</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1366,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1027,6 +1382,36 @@
       <c r="H14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>4,5%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2,65%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>3,1%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1,98%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0; 0,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0; 0,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>0,58; 2,44</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0,55; 1,76</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>0; 0,29</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,11</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,15</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0; 0,28</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>3,1; 6,13</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1,73; 3,6</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,16</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,16</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2,15; 4,13</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1,42; 2,62</t>
         </is>
       </c>
     </row>
@@ -1091,12 +1506,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1107,6 +1522,36 @@
       <c r="H16" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>3,69%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>4,16%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2,77%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>3,8%</t>
         </is>
       </c>
     </row>
@@ -1129,22 +1574,52 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
+          <t>1,39; 2,31</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2,66; 4,14</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,04</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,06</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3,07; 4,4</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3,61; 4,88</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
         <is>
           <t>0; 0,03</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,02</t>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,03</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2,37; 3,22</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>3,33; 4,31</t>
         </is>
       </c>
     </row>
@@ -1158,15 +1633,15 @@
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P1805-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1805-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>5,05%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,63; 9,26</t>
+          <t>1,63; 9,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,75; 10,31</t>
+          <t>2,75; 10,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,97; 7,99</t>
+          <t>2,91; 7,94</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>3,12%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,15; 5,06</t>
+          <t>1,12; 5,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,33; 6,65</t>
+          <t>1,85; 6,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,16; 5,24</t>
+          <t>1,97; 4,93</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>4,46%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,7; 7,07</t>
+          <t>2,71; 7,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,14; 6,13</t>
+          <t>3,2; 6,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,36; 5,74</t>
+          <t>3,35; 5,77</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>4,08%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,19; 7,31</t>
+          <t>1,4; 6,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,23; 5,75</t>
+          <t>3,04; 5,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,81; 6,14</t>
+          <t>2,52; 5,31</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>4,2%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,98; 4,8</t>
+          <t>1,99; 4,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,1; 6,89</t>
+          <t>4,15; 6,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,28; 5,27</t>
+          <t>3,3; 5,3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1366,12 +1366,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1386,12 +1386,12 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1406,12 +1406,12 @@
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>1,72%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0; 0,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0; 0,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,44</t>
+          <t>0,28; 2,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,55; 1,76</t>
+          <t>0,36; 1,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0; 0,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>0; 0,56</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2,4; 7,26</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0,75; 3,85</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>0; 0,28</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>3,1; 6,13</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>1,73; 3,6</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,16</t>
-        </is>
-      </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0; 0,31</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,15; 4,13</t>
+          <t>1,73; 4,59</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,42; 2,62</t>
+          <t>0,82; 2,64</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1506,12 +1506,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1526,12 +1526,12 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1546,12 +1546,12 @@
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>1,93%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0; 0,87</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,86</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0,35; 3,53</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0,37; 2,34</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,66</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,55</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2,56; 8,09</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1,53; 3,89</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,38</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,34</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2,06; 5,29</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1,2; 2,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1,8%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3,21%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3,69%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3,96%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2,77%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3,59%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>1,39; 2,31</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>2,66; 4,14</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>2,38; 3,98</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>3,07; 4,4</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>3,61; 4,88</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>3,26; 4,64</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>0; 0,03</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>0; 0,03</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>2,37; 3,22</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>3,33; 4,31</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>3,02; 4,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P1805-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1805-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -734,12 +735,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,95; 4,08</t>
+          <t>0,97; 3,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,63; 9,5</t>
+          <t>1,95; 9,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,12 +755,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 4,47</t>
+          <t>0,93; 4,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,75; 10,56</t>
+          <t>2,94; 11,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -774,12 +775,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,25</t>
+          <t>1,25; 3,47</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,91; 7,94</t>
+          <t>2,89; 8,0</t>
         </is>
       </c>
     </row>
@@ -874,12 +875,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,54</t>
+          <t>0,5; 2,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,12; 5,11</t>
+          <t>1,16; 5,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -894,12 +895,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,64</t>
+          <t>1,16; 3,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,85; 6,14</t>
+          <t>1,75; 5,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -914,12 +915,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 2,65</t>
+          <t>1,05; 2,54</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,97; 4,93</t>
+          <t>1,94; 4,91</t>
         </is>
       </c>
     </row>
@@ -1014,12 +1015,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,63; 4,09</t>
+          <t>1,59; 4,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,71; 7,06</t>
+          <t>2,82; 6,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1034,12 +1035,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,01; 4,82</t>
+          <t>2,07; 4,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,2; 6,18</t>
+          <t>3,3; 6,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,12 +1055,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 3,87</t>
+          <t>1,99; 3,85</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,35; 5,77</t>
+          <t>3,32; 5,77</t>
         </is>
       </c>
     </row>
@@ -1154,12 +1155,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,98; 3,25</t>
+          <t>1,07; 3,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,4; 6,34</t>
+          <t>1,47; 6,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1174,12 +1175,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,84; 6,29</t>
+          <t>2,72; 6,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,04; 5,57</t>
+          <t>3,15; 5,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1194,12 +1195,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,12; 4,1</t>
+          <t>2,21; 4,14</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,52; 5,31</t>
+          <t>2,5; 5,4</t>
         </is>
       </c>
     </row>
@@ -1294,12 +1295,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,19</t>
+          <t>0,71; 3,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,99; 4,82</t>
+          <t>1,84; 5,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1314,12 +1315,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,55; 7,82</t>
+          <t>3,67; 8,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,15; 6,96</t>
+          <t>4,06; 6,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1334,12 +1335,12 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,5; 5,08</t>
+          <t>2,55; 5,13</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,3; 5,3</t>
+          <t>3,25; 5,38</t>
         </is>
       </c>
     </row>
@@ -1434,12 +1435,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,83</t>
+          <t>0,28; 2,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,93</t>
+          <t>0,32; 2,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1454,12 +1455,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,4; 7,26</t>
+          <t>2,65; 7,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,75; 3,85</t>
+          <t>0,67; 3,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1474,12 +1475,12 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,59</t>
+          <t>1,76; 4,48</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,64</t>
+          <t>0,84; 2,59</t>
         </is>
       </c>
     </row>
@@ -1574,12 +1575,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,53</t>
+          <t>0,38; 3,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,34</t>
+          <t>0,39; 2,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1594,12 +1595,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,56; 8,09</t>
+          <t>2,57; 7,55</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,89</t>
+          <t>1,52; 4,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1614,12 +1615,12 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>2,06; 5,29</t>
+          <t>2,08; 5,29</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,2; 2,85</t>
+          <t>1,24; 2,82</t>
         </is>
       </c>
     </row>
@@ -1714,12 +1715,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,31</t>
+          <t>1,39; 2,27</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,38; 3,98</t>
+          <t>2,4; 4,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1734,12 +1735,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,07; 4,4</t>
+          <t>3,05; 4,35</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,26; 4,64</t>
+          <t>3,1; 4,67</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1754,12 +1755,12 @@
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2,37; 3,22</t>
+          <t>2,38; 3,16</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,02; 4,16</t>
+          <t>3,08; 4,18</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que en los últimos 12 meses han visitado un psicologo o psicoterapeuta</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8264</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>17955</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>8193</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>18077</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>16457</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>36031</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1897</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1951</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4062; 16057</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7819; 38966</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1832</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1957</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3675; 17257</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>9211; 34471</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1867</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1956</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>10185; 28326</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>20583; 57045</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7486</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>10803</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11898</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>18332</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>19384</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>29134</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2006</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1975</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2925; 15051</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>4912; 23536</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2029</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2048</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6546; 20508</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>8929; 29783</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2018</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2011</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>12151; 29291</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>18119; 45926</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>17387</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>23400</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>21290</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>24758</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>38677</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>48158</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1997</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2008</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>10608; 27336</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>15114; 35587</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2010</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2043</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>13675; 32701</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17900; 35059</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2006</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2028</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>26543; 51276</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>35803; 62258</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>12255</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>34528</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>27283</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>30806</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>39538</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>65335</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2055</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2149</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>6897; 20505</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>13047; 55796</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2191</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>17659; 40525</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>22467; 40980</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2013</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2172</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>28609; 53565</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>40013; 86470</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>8231</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>17689</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>27232</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>28906</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>35463</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>46595</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1889</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2092</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3387; 17361</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>10320; 28142</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1953</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2112</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>18221; 40721</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>22205; 37562</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1924</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2106</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>24898; 49989</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>35992; 59612</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3714</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3496</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>16516</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>13309</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>20230</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>16805</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1847</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2101</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>929; 8673</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1175; 7441</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1770</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1970</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>10006; 28446</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>4068; 22888</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1808</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2033</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>12564; 31904</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>8193; 25263</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>3727</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>3053</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>18526</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>10622</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>22252</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>13675</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1822</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2150</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>988; 9548</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1107; 6528</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2202</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2127</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>10282; 30209</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>6446; 17027</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2043</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2141</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>13695; 34796</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>8754; 19994</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>61063</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>110924</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>130939</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>144810</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>192002</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>255734</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1957</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2050</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>47072; 77007</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>83140; 139200</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2072</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>108211; 154030</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>113627; 170815</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1963</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2061</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>165041; 219583</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>219530; 297898</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>